--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3877,28 +3877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3264.521673178621</v>
+        <v>3567.830181914154</v>
       </c>
       <c r="AB2" t="n">
-        <v>4466.662573775006</v>
+        <v>4881.662656454007</v>
       </c>
       <c r="AC2" t="n">
-        <v>4040.370566734047</v>
+        <v>4415.763623978421</v>
       </c>
       <c r="AD2" t="n">
-        <v>3264521.673178621</v>
+        <v>3567830.181914154</v>
       </c>
       <c r="AE2" t="n">
-        <v>4466662.573775006</v>
+        <v>4881662.656454006</v>
       </c>
       <c r="AF2" t="n">
         <v>2.607033756222769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.20416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4040370.566734047</v>
+        <v>4415763.623978421</v>
       </c>
     </row>
     <row r="3">
@@ -3983,28 +3983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1182.965441686392</v>
+        <v>1339.514462204261</v>
       </c>
       <c r="AB3" t="n">
-        <v>1618.585506067311</v>
+        <v>1832.782782395212</v>
       </c>
       <c r="AC3" t="n">
-        <v>1464.109977067272</v>
+        <v>1657.864565970203</v>
       </c>
       <c r="AD3" t="n">
-        <v>1182965.441686392</v>
+        <v>1339514.462204261</v>
       </c>
       <c r="AE3" t="n">
-        <v>1618585.506067311</v>
+        <v>1832782.782395212</v>
       </c>
       <c r="AF3" t="n">
         <v>4.903679444951308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.00833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1464109.977067272</v>
+        <v>1657864.565970203</v>
       </c>
     </row>
     <row r="4">
@@ -4089,28 +4089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>928.1502240803009</v>
+        <v>1065.088036638693</v>
       </c>
       <c r="AB4" t="n">
-        <v>1269.936083684653</v>
+        <v>1457.300440096963</v>
       </c>
       <c r="AC4" t="n">
-        <v>1148.735166224277</v>
+        <v>1318.217731428122</v>
       </c>
       <c r="AD4" t="n">
-        <v>928150.2240803009</v>
+        <v>1065088.036638692</v>
       </c>
       <c r="AE4" t="n">
-        <v>1269936.083684653</v>
+        <v>1457300.440096963</v>
       </c>
       <c r="AF4" t="n">
         <v>5.732008765849136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.38333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1148735.166224277</v>
+        <v>1318217.731428122</v>
       </c>
     </row>
     <row r="5">
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>826.616158521534</v>
+        <v>953.7654498095773</v>
       </c>
       <c r="AB5" t="n">
-        <v>1131.012695820314</v>
+        <v>1304.983965591453</v>
       </c>
       <c r="AC5" t="n">
-        <v>1023.070431517511</v>
+        <v>1180.438127471903</v>
       </c>
       <c r="AD5" t="n">
-        <v>826616.1585215339</v>
+        <v>953765.4498095773</v>
       </c>
       <c r="AE5" t="n">
-        <v>1131012.695820314</v>
+        <v>1304983.965591453</v>
       </c>
       <c r="AF5" t="n">
         <v>6.167832787804019e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.44583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1023070.431517511</v>
+        <v>1180438.127471903</v>
       </c>
     </row>
     <row r="6">
@@ -4301,28 +4301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>769.0954843751256</v>
+        <v>886.4904198116016</v>
       </c>
       <c r="AB6" t="n">
-        <v>1052.310371820152</v>
+        <v>1212.935301583367</v>
       </c>
       <c r="AC6" t="n">
-        <v>951.8793468605189</v>
+        <v>1097.174458765638</v>
       </c>
       <c r="AD6" t="n">
-        <v>769095.4843751256</v>
+        <v>886490.4198116015</v>
       </c>
       <c r="AE6" t="n">
-        <v>1052310.371820152</v>
+        <v>1212935.301583367</v>
       </c>
       <c r="AF6" t="n">
         <v>6.442812507792838e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.3625</v>
       </c>
       <c r="AH6" t="n">
-        <v>951879.3468605189</v>
+        <v>1097174.458765638</v>
       </c>
     </row>
     <row r="7">
@@ -4407,28 +4407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>727.6479097479407</v>
+        <v>845.110164992121</v>
       </c>
       <c r="AB7" t="n">
-        <v>995.599971677297</v>
+        <v>1156.317011371353</v>
       </c>
       <c r="AC7" t="n">
-        <v>900.5813077137514</v>
+        <v>1045.959738707189</v>
       </c>
       <c r="AD7" t="n">
-        <v>727647.9097479407</v>
+        <v>845110.1649921209</v>
       </c>
       <c r="AE7" t="n">
-        <v>995599.971677297</v>
+        <v>1156317.011371353</v>
       </c>
       <c r="AF7" t="n">
         <v>6.627764620826415e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.67916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>900581.3077137513</v>
+        <v>1045959.738707189</v>
       </c>
     </row>
     <row r="8">
@@ -4513,28 +4513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>702.8442457779973</v>
+        <v>820.2050157956924</v>
       </c>
       <c r="AB8" t="n">
-        <v>961.6625043731949</v>
+        <v>1122.240687503162</v>
       </c>
       <c r="AC8" t="n">
-        <v>869.8827846576183</v>
+        <v>1015.135611362557</v>
       </c>
       <c r="AD8" t="n">
-        <v>702844.2457779973</v>
+        <v>820205.0157956923</v>
       </c>
       <c r="AE8" t="n">
-        <v>961662.5043731949</v>
+        <v>1122240.687503162</v>
       </c>
       <c r="AF8" t="n">
         <v>6.769398010848053e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.18333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>869882.7846576184</v>
+        <v>1015135.611362557</v>
       </c>
     </row>
     <row r="9">
@@ -4619,28 +4619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>671.7814900649043</v>
+        <v>789.2095798903038</v>
       </c>
       <c r="AB9" t="n">
-        <v>919.1610716144767</v>
+        <v>1079.831364675285</v>
       </c>
       <c r="AC9" t="n">
-        <v>831.4376289902565</v>
+        <v>976.7737747835142</v>
       </c>
       <c r="AD9" t="n">
-        <v>671781.4900649043</v>
+        <v>789209.5798903038</v>
       </c>
       <c r="AE9" t="n">
-        <v>919161.0716144766</v>
+        <v>1079831.364675285</v>
       </c>
       <c r="AF9" t="n">
         <v>6.879013214295651e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>831437.6289902565</v>
+        <v>976773.7747835142</v>
       </c>
     </row>
     <row r="10">
@@ -4725,28 +4725,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>648.9705377710525</v>
+        <v>756.5769519371798</v>
       </c>
       <c r="AB10" t="n">
-        <v>887.9501203378378</v>
+        <v>1035.181963459881</v>
       </c>
       <c r="AC10" t="n">
-        <v>803.2054070986147</v>
+        <v>936.3856497542803</v>
       </c>
       <c r="AD10" t="n">
-        <v>648970.5377710524</v>
+        <v>756576.9519371799</v>
       </c>
       <c r="AE10" t="n">
-        <v>887950.1203378378</v>
+        <v>1035181.963459881</v>
       </c>
       <c r="AF10" t="n">
         <v>6.998422215989426e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.425</v>
       </c>
       <c r="AH10" t="n">
-        <v>803205.4070986147</v>
+        <v>936385.6497542802</v>
       </c>
     </row>
     <row r="11">
@@ -4831,28 +4831,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>640.727891588388</v>
+        <v>748.3343057545153</v>
       </c>
       <c r="AB11" t="n">
-        <v>876.672168190831</v>
+        <v>1023.904011312875</v>
       </c>
       <c r="AC11" t="n">
-        <v>793.0038068758132</v>
+        <v>926.1840495314786</v>
       </c>
       <c r="AD11" t="n">
-        <v>640727.891588388</v>
+        <v>748334.3057545153</v>
       </c>
       <c r="AE11" t="n">
-        <v>876672.1681908311</v>
+        <v>1023904.011312875</v>
       </c>
       <c r="AF11" t="n">
         <v>7.004825853304234e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.40416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>793003.8068758132</v>
+        <v>926184.0495314787</v>
       </c>
     </row>
     <row r="12">
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>633.7857667960798</v>
+        <v>741.3921809622072</v>
       </c>
       <c r="AB12" t="n">
-        <v>867.1736467850644</v>
+        <v>1014.405489907108</v>
       </c>
       <c r="AC12" t="n">
-        <v>784.4118110217543</v>
+        <v>917.5920536774197</v>
       </c>
       <c r="AD12" t="n">
-        <v>633785.7667960798</v>
+        <v>741392.1809622073</v>
       </c>
       <c r="AE12" t="n">
-        <v>867173.6467850644</v>
+        <v>1014405.489907108</v>
       </c>
       <c r="AF12" t="n">
         <v>7.033453878946906e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.31666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>784411.8110217543</v>
+        <v>917592.0536774197</v>
       </c>
     </row>
     <row r="13">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>634.0129544770923</v>
+        <v>741.6193686432196</v>
       </c>
       <c r="AB13" t="n">
-        <v>867.4844949930384</v>
+        <v>1014.716338115082</v>
       </c>
       <c r="AC13" t="n">
-        <v>784.6929923130376</v>
+        <v>917.8732349687031</v>
       </c>
       <c r="AD13" t="n">
-        <v>634012.9544770923</v>
+        <v>741619.3686432196</v>
       </c>
       <c r="AE13" t="n">
-        <v>867484.4949930385</v>
+        <v>1014716.338115082</v>
       </c>
       <c r="AF13" t="n">
         <v>7.047391207220312e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.27083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>784692.9923130376</v>
+        <v>917873.234968703</v>
       </c>
     </row>
   </sheetData>
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2041.014149156686</v>
+        <v>2273.245843532798</v>
       </c>
       <c r="AB2" t="n">
-        <v>2792.605602065508</v>
+        <v>3110.355251650359</v>
       </c>
       <c r="AC2" t="n">
-        <v>2526.083242850954</v>
+        <v>2813.507311843744</v>
       </c>
       <c r="AD2" t="n">
-        <v>2041014.149156685</v>
+        <v>2273245.843532797</v>
       </c>
       <c r="AE2" t="n">
-        <v>2792605.602065508</v>
+        <v>3110355.251650359</v>
       </c>
       <c r="AF2" t="n">
         <v>3.638980440240307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.19583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2526083.242850954</v>
+        <v>2813507.311843744</v>
       </c>
     </row>
     <row r="3">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>957.657467714762</v>
+        <v>1102.764219739899</v>
       </c>
       <c r="AB3" t="n">
-        <v>1310.309196193038</v>
+        <v>1508.850655971923</v>
       </c>
       <c r="AC3" t="n">
-        <v>1185.255125538881</v>
+        <v>1364.848067051158</v>
       </c>
       <c r="AD3" t="n">
-        <v>957657.467714762</v>
+        <v>1102764.219739899</v>
       </c>
       <c r="AE3" t="n">
-        <v>1310309.196193038</v>
+        <v>1508850.655971923</v>
       </c>
       <c r="AF3" t="n">
         <v>5.856001143383655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.325</v>
       </c>
       <c r="AH3" t="n">
-        <v>1185255.125538881</v>
+        <v>1364848.067051158</v>
       </c>
     </row>
     <row r="4">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>777.8972577223371</v>
+        <v>913.3566149862889</v>
       </c>
       <c r="AB4" t="n">
-        <v>1064.353346420641</v>
+        <v>1249.694815074255</v>
       </c>
       <c r="AC4" t="n">
-        <v>962.7729568675584</v>
+        <v>1130.425695881256</v>
       </c>
       <c r="AD4" t="n">
-        <v>777897.2577223371</v>
+        <v>913356.6149862889</v>
       </c>
       <c r="AE4" t="n">
-        <v>1064353.346420641</v>
+        <v>1249694.815074255</v>
       </c>
       <c r="AF4" t="n">
         <v>6.65642021858432e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>962772.9568675584</v>
+        <v>1130425.695881256</v>
       </c>
     </row>
     <row r="5">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>708.3319772302868</v>
+        <v>824.4312472238798</v>
       </c>
       <c r="AB5" t="n">
-        <v>969.1710606478425</v>
+        <v>1128.02320379138</v>
       </c>
       <c r="AC5" t="n">
-        <v>876.6747348597384</v>
+        <v>1020.36625241204</v>
       </c>
       <c r="AD5" t="n">
-        <v>708331.9772302868</v>
+        <v>824431.2472238798</v>
       </c>
       <c r="AE5" t="n">
-        <v>969171.0606478425</v>
+        <v>1128023.20379138</v>
       </c>
       <c r="AF5" t="n">
         <v>7.063224352066842e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>876674.7348597384</v>
+        <v>1020366.25241204</v>
       </c>
     </row>
     <row r="6">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>660.7435973169356</v>
+        <v>776.8087018917478</v>
       </c>
       <c r="AB6" t="n">
-        <v>904.0585397992455</v>
+        <v>1062.863936309535</v>
       </c>
       <c r="AC6" t="n">
-        <v>817.7764616149345</v>
+        <v>961.4256939670561</v>
       </c>
       <c r="AD6" t="n">
-        <v>660743.5973169357</v>
+        <v>776808.7018917478</v>
       </c>
       <c r="AE6" t="n">
-        <v>904058.5397992455</v>
+        <v>1062863.936309535</v>
       </c>
       <c r="AF6" t="n">
         <v>7.321650078200115e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.45416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>817776.4616149345</v>
+        <v>961425.6939670561</v>
       </c>
     </row>
     <row r="7">
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>622.4553790500569</v>
+        <v>738.5878034325734</v>
       </c>
       <c r="AB7" t="n">
-        <v>851.6709104095266</v>
+        <v>1010.568416850658</v>
       </c>
       <c r="AC7" t="n">
-        <v>770.388634047671</v>
+        <v>914.1211854881118</v>
       </c>
       <c r="AD7" t="n">
-        <v>622455.3790500569</v>
+        <v>738587.8034325734</v>
       </c>
       <c r="AE7" t="n">
-        <v>851670.9104095267</v>
+        <v>1010568.416850658</v>
       </c>
       <c r="AF7" t="n">
         <v>7.500528491504487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.89583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>770388.634047671</v>
+        <v>914121.1854881118</v>
       </c>
     </row>
     <row r="8">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>598.1972434952336</v>
+        <v>714.2281826512648</v>
       </c>
       <c r="AB8" t="n">
-        <v>818.4798591500071</v>
+        <v>977.2385090270493</v>
       </c>
       <c r="AC8" t="n">
-        <v>740.3652901364269</v>
+        <v>883.9722372883687</v>
       </c>
       <c r="AD8" t="n">
-        <v>598197.2434952336</v>
+        <v>714228.1826512648</v>
       </c>
       <c r="AE8" t="n">
-        <v>818479.8591500071</v>
+        <v>977238.5090270493</v>
       </c>
       <c r="AF8" t="n">
         <v>7.633656895876173e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.49583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>740365.2901364269</v>
+        <v>883972.2372883686</v>
       </c>
     </row>
     <row r="9">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>591.7046437973872</v>
+        <v>698.123364640872</v>
       </c>
       <c r="AB9" t="n">
-        <v>809.5963978101308</v>
+        <v>955.2031865308035</v>
       </c>
       <c r="AC9" t="n">
-        <v>732.329653878812</v>
+        <v>864.0399350443952</v>
       </c>
       <c r="AD9" t="n">
-        <v>591704.6437973873</v>
+        <v>698123.364640872</v>
       </c>
       <c r="AE9" t="n">
-        <v>809596.3978101308</v>
+        <v>955203.1865308034</v>
       </c>
       <c r="AF9" t="n">
         <v>7.676933931353037e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.37083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>732329.653878812</v>
+        <v>864039.9350443952</v>
       </c>
     </row>
     <row r="10">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>593.5571086010035</v>
+        <v>699.9758294444882</v>
       </c>
       <c r="AB10" t="n">
-        <v>812.1310218794179</v>
+        <v>957.7378106000904</v>
       </c>
       <c r="AC10" t="n">
-        <v>734.6223769842935</v>
+        <v>866.3326581498766</v>
       </c>
       <c r="AD10" t="n">
-        <v>593557.1086010035</v>
+        <v>699975.8294444883</v>
       </c>
       <c r="AE10" t="n">
-        <v>812131.0218794178</v>
+        <v>957737.8106000904</v>
       </c>
       <c r="AF10" t="n">
         <v>7.67528528238249e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.375</v>
       </c>
       <c r="AH10" t="n">
-        <v>734622.3769842935</v>
+        <v>866332.6581498766</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>762.2127113010464</v>
+        <v>911.8320882991092</v>
       </c>
       <c r="AB2" t="n">
-        <v>1042.893058053679</v>
+        <v>1247.608890403485</v>
       </c>
       <c r="AC2" t="n">
-        <v>943.3608083026353</v>
+        <v>1128.538848933451</v>
       </c>
       <c r="AD2" t="n">
-        <v>762212.7113010464</v>
+        <v>911832.0882991091</v>
       </c>
       <c r="AE2" t="n">
-        <v>1042893.058053679</v>
+        <v>1247608.890403485</v>
       </c>
       <c r="AF2" t="n">
         <v>7.997669539874001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.97083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>943360.8083026353</v>
+        <v>1128538.848933451</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.449768188618</v>
+        <v>644.6482292576318</v>
       </c>
       <c r="AB3" t="n">
-        <v>728.5212628615977</v>
+        <v>882.0361471429819</v>
       </c>
       <c r="AC3" t="n">
-        <v>658.9922160201003</v>
+        <v>797.8558552051627</v>
       </c>
       <c r="AD3" t="n">
-        <v>532449.768188618</v>
+        <v>644648.2292576318</v>
       </c>
       <c r="AE3" t="n">
-        <v>728521.2628615977</v>
+        <v>882036.1471429819</v>
       </c>
       <c r="AF3" t="n">
         <v>9.976088871454111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.02916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>658992.2160201003</v>
+        <v>797855.8552051627</v>
       </c>
     </row>
     <row r="4">
@@ -6697,28 +6697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>505.7347860916914</v>
+        <v>617.8990817419244</v>
       </c>
       <c r="AB4" t="n">
-        <v>691.9686457747526</v>
+        <v>845.4367834228894</v>
       </c>
       <c r="AC4" t="n">
-        <v>625.9281294061035</v>
+        <v>764.749483390986</v>
       </c>
       <c r="AD4" t="n">
-        <v>505734.7860916914</v>
+        <v>617899.0817419244</v>
       </c>
       <c r="AE4" t="n">
-        <v>691968.6457747526</v>
+        <v>845436.7834228894</v>
       </c>
       <c r="AF4" t="n">
         <v>1.021138212723087e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.475</v>
       </c>
       <c r="AH4" t="n">
-        <v>625928.1294061035</v>
+        <v>764749.483390986</v>
       </c>
     </row>
     <row r="5">
@@ -6803,28 +6803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>507.0867073659588</v>
+        <v>619.2510030161918</v>
       </c>
       <c r="AB5" t="n">
-        <v>693.8184041047626</v>
+        <v>847.2865417528993</v>
       </c>
       <c r="AC5" t="n">
-        <v>627.6013493972494</v>
+        <v>766.4227033821319</v>
       </c>
       <c r="AD5" t="n">
-        <v>507086.7073659588</v>
+        <v>619251.0030161918</v>
       </c>
       <c r="AE5" t="n">
-        <v>693818.4041047626</v>
+        <v>847286.5417528993</v>
       </c>
       <c r="AF5" t="n">
         <v>1.022518906644515e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.44166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>627601.3493972494</v>
+        <v>766422.7033821319</v>
       </c>
     </row>
   </sheetData>
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1076.272654977417</v>
+        <v>1246.924751871256</v>
       </c>
       <c r="AB2" t="n">
-        <v>1472.603728338543</v>
+        <v>1706.097455947863</v>
       </c>
       <c r="AC2" t="n">
-        <v>1332.060495318225</v>
+        <v>1543.269909275017</v>
       </c>
       <c r="AD2" t="n">
-        <v>1076272.654977417</v>
+        <v>1246924.751871256</v>
       </c>
       <c r="AE2" t="n">
-        <v>1472603.728338543</v>
+        <v>1706097.455947863</v>
       </c>
       <c r="AF2" t="n">
         <v>5.981886745999134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1332060.495318225</v>
+        <v>1543269.909275017</v>
       </c>
     </row>
     <row r="3">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>665.306653270717</v>
+        <v>788.5800649409424</v>
       </c>
       <c r="AB3" t="n">
-        <v>910.3019142630303</v>
+        <v>1078.97003454933</v>
       </c>
       <c r="AC3" t="n">
-        <v>823.4239771825269</v>
+        <v>975.9946487958956</v>
       </c>
       <c r="AD3" t="n">
-        <v>665306.653270717</v>
+        <v>788580.0649409425</v>
       </c>
       <c r="AE3" t="n">
-        <v>910301.9142630303</v>
+        <v>1078970.03454933</v>
       </c>
       <c r="AF3" t="n">
         <v>8.066853518049302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>823423.9771825268</v>
+        <v>975994.6487958956</v>
       </c>
     </row>
     <row r="4">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>570.3479992030901</v>
+        <v>684.1388407448368</v>
       </c>
       <c r="AB4" t="n">
-        <v>780.3752944875504</v>
+        <v>936.0689439825961</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.8973716452626</v>
+        <v>846.7318377499108</v>
       </c>
       <c r="AD4" t="n">
-        <v>570347.9992030901</v>
+        <v>684138.8407448368</v>
       </c>
       <c r="AE4" t="n">
-        <v>780375.2944875504</v>
+        <v>936068.9439825962</v>
       </c>
       <c r="AF4" t="n">
         <v>8.7897416390158e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.61666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>705897.3716452626</v>
+        <v>846731.8377499108</v>
       </c>
     </row>
     <row r="5">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>529.7821838064715</v>
+        <v>643.5388599294374</v>
       </c>
       <c r="AB5" t="n">
-        <v>724.8713562244279</v>
+        <v>880.5182590862258</v>
       </c>
       <c r="AC5" t="n">
-        <v>655.6906513497058</v>
+        <v>796.482832254174</v>
       </c>
       <c r="AD5" t="n">
-        <v>529782.1838064715</v>
+        <v>643538.8599294374</v>
       </c>
       <c r="AE5" t="n">
-        <v>724871.3562244279</v>
+        <v>880518.2590862259</v>
       </c>
       <c r="AF5" t="n">
         <v>9.066740808731425e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.89583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>655690.6513497059</v>
+        <v>796482.832254174</v>
       </c>
     </row>
     <row r="6">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>530.2197389993507</v>
+        <v>643.9764151223164</v>
       </c>
       <c r="AB6" t="n">
-        <v>725.4700385428979</v>
+        <v>881.1169414046958</v>
       </c>
       <c r="AC6" t="n">
-        <v>656.2321962679569</v>
+        <v>797.0243771724251</v>
       </c>
       <c r="AD6" t="n">
-        <v>530219.7389993507</v>
+        <v>643976.4151223165</v>
       </c>
       <c r="AE6" t="n">
-        <v>725470.0385428979</v>
+        <v>881116.9414046959</v>
       </c>
       <c r="AF6" t="n">
         <v>9.078697607424186e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.86666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>656232.1962679569</v>
+        <v>797024.3771724252</v>
       </c>
     </row>
     <row r="7">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>530.9093060153589</v>
+        <v>644.6659821383248</v>
       </c>
       <c r="AB7" t="n">
-        <v>726.4135345557499</v>
+        <v>882.060437417548</v>
       </c>
       <c r="AC7" t="n">
-        <v>657.0856463455474</v>
+        <v>797.8778272500157</v>
       </c>
       <c r="AD7" t="n">
-        <v>530909.3060153589</v>
+        <v>644665.9821383248</v>
       </c>
       <c r="AE7" t="n">
-        <v>726413.53455575</v>
+        <v>882060.4374175479</v>
       </c>
       <c r="AF7" t="n">
         <v>9.092149005953542e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.82916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>657085.6463455474</v>
+        <v>797877.8272500157</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.8896488074002</v>
+        <v>709.3728880650999</v>
       </c>
       <c r="AB2" t="n">
-        <v>793.430600424039</v>
+        <v>970.5952807737787</v>
       </c>
       <c r="AC2" t="n">
-        <v>717.7066975064096</v>
+        <v>877.9630294157606</v>
       </c>
       <c r="AD2" t="n">
-        <v>579889.6488074003</v>
+        <v>709372.8880650999</v>
       </c>
       <c r="AE2" t="n">
-        <v>793430.6004240389</v>
+        <v>970595.2807737787</v>
       </c>
       <c r="AF2" t="n">
         <v>1.017167441334234e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.99166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>717706.6975064096</v>
+        <v>877963.0294157607</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>490.1413688120811</v>
+        <v>601.0889672985028</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.6330443197714</v>
+        <v>822.4364432314907</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.6287678092809</v>
+        <v>743.9442633862742</v>
       </c>
       <c r="AD3" t="n">
-        <v>490141.3688120811</v>
+        <v>601088.9672985028</v>
       </c>
       <c r="AE3" t="n">
-        <v>670633.0443197715</v>
+        <v>822436.4432314907</v>
       </c>
       <c r="AF3" t="n">
         <v>1.129907837274046e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>606628.7678092809</v>
+        <v>743944.2633862742</v>
       </c>
     </row>
     <row r="4">
@@ -8139,28 +8139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>491.6503010279951</v>
+        <v>602.5978995144168</v>
       </c>
       <c r="AB4" t="n">
-        <v>672.6976319469761</v>
+        <v>824.5010308586952</v>
       </c>
       <c r="AC4" t="n">
-        <v>608.4963140910121</v>
+        <v>745.8118096680055</v>
       </c>
       <c r="AD4" t="n">
-        <v>491650.3010279951</v>
+        <v>602597.8995144168</v>
       </c>
       <c r="AE4" t="n">
-        <v>672697.6319469761</v>
+        <v>824501.0308586953</v>
       </c>
       <c r="AF4" t="n">
         <v>1.131423342304213e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>608496.3140910121</v>
+        <v>745811.8096680054</v>
       </c>
     </row>
   </sheetData>
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2274.362065966813</v>
+        <v>2526.725881298747</v>
       </c>
       <c r="AB2" t="n">
-        <v>3111.882516428837</v>
+        <v>3457.177822071779</v>
       </c>
       <c r="AC2" t="n">
-        <v>2814.888816615294</v>
+        <v>3127.229622912665</v>
       </c>
       <c r="AD2" t="n">
-        <v>2274362.065966813</v>
+        <v>2526725.881298747</v>
       </c>
       <c r="AE2" t="n">
-        <v>3111882.516428838</v>
+        <v>3457177.822071779</v>
       </c>
       <c r="AF2" t="n">
         <v>3.353991260404837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.96666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2814888.816615294</v>
+        <v>3127229.622912665</v>
       </c>
     </row>
     <row r="3">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1004.087043786523</v>
+        <v>1159.361572130189</v>
       </c>
       <c r="AB3" t="n">
-        <v>1373.836190502753</v>
+        <v>1586.289650411284</v>
       </c>
       <c r="AC3" t="n">
-        <v>1242.719192672374</v>
+        <v>1434.896392547538</v>
       </c>
       <c r="AD3" t="n">
-        <v>1004087.043786523</v>
+        <v>1159361.572130189</v>
       </c>
       <c r="AE3" t="n">
-        <v>1373836.190502753</v>
+        <v>1586289.650411284</v>
       </c>
       <c r="AF3" t="n">
         <v>5.591862392781922e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.97083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1242719.192672374</v>
+        <v>1434896.392547538</v>
       </c>
     </row>
     <row r="4">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>820.0925707147193</v>
+        <v>946.2413239917628</v>
       </c>
       <c r="AB4" t="n">
-        <v>1122.086835182648</v>
+        <v>1294.689124706515</v>
       </c>
       <c r="AC4" t="n">
-        <v>1014.99644249158</v>
+        <v>1171.125811752123</v>
       </c>
       <c r="AD4" t="n">
-        <v>820092.5707147192</v>
+        <v>946241.3239917628</v>
       </c>
       <c r="AE4" t="n">
-        <v>1122086.835182648</v>
+        <v>1294689.124706515</v>
       </c>
       <c r="AF4" t="n">
         <v>6.396675501316528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>1014996.442491579</v>
+        <v>1171125.811752123</v>
       </c>
     </row>
     <row r="5">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>734.1920394492116</v>
+        <v>860.3739471151788</v>
       </c>
       <c r="AB5" t="n">
-        <v>1004.553938641202</v>
+        <v>1177.201591462663</v>
       </c>
       <c r="AC5" t="n">
-        <v>908.680720637593</v>
+        <v>1064.851123786276</v>
       </c>
       <c r="AD5" t="n">
-        <v>734192.0394492117</v>
+        <v>860373.9471151788</v>
       </c>
       <c r="AE5" t="n">
-        <v>1004553.938641202</v>
+        <v>1177201.591462663</v>
       </c>
       <c r="AF5" t="n">
         <v>6.821404458144386e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.56666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>908680.7206375931</v>
+        <v>1064851.123786276</v>
       </c>
     </row>
     <row r="6">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>684.1288535612463</v>
+        <v>800.6359979471674</v>
       </c>
       <c r="AB6" t="n">
-        <v>936.055279077404</v>
+        <v>1095.465493958674</v>
       </c>
       <c r="AC6" t="n">
-        <v>846.7194770040912</v>
+        <v>990.9158047107341</v>
       </c>
       <c r="AD6" t="n">
-        <v>684128.8535612463</v>
+        <v>800635.9979471674</v>
       </c>
       <c r="AE6" t="n">
-        <v>936055.2790774039</v>
+        <v>1095465.493958673</v>
       </c>
       <c r="AF6" t="n">
         <v>7.088871083419504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.64166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>846719.4770040913</v>
+        <v>990915.8047107341</v>
       </c>
     </row>
     <row r="7">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>655.6795442994685</v>
+        <v>762.4446055976392</v>
       </c>
       <c r="AB7" t="n">
-        <v>897.1296790504953</v>
+        <v>1043.210346060732</v>
       </c>
       <c r="AC7" t="n">
-        <v>811.508881611328</v>
+        <v>943.6478147876113</v>
       </c>
       <c r="AD7" t="n">
-        <v>655679.5442994685</v>
+        <v>762444.6055976392</v>
       </c>
       <c r="AE7" t="n">
-        <v>897129.6790504953</v>
+        <v>1043210.346060732</v>
       </c>
       <c r="AF7" t="n">
         <v>7.261417222130821e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.07916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>811508.881611328</v>
+        <v>943647.8147876114</v>
       </c>
     </row>
     <row r="8">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>621.6964216616988</v>
+        <v>738.1694006288392</v>
       </c>
       <c r="AB8" t="n">
-        <v>850.6324714279383</v>
+        <v>1009.99593967596</v>
       </c>
       <c r="AC8" t="n">
-        <v>769.4493022250271</v>
+        <v>913.6033447314899</v>
       </c>
       <c r="AD8" t="n">
-        <v>621696.4216616987</v>
+        <v>738169.4006288392</v>
       </c>
       <c r="AE8" t="n">
-        <v>850632.4714279383</v>
+        <v>1009995.93967596</v>
       </c>
       <c r="AF8" t="n">
         <v>7.401384719267275e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.64166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>769449.302225027</v>
+        <v>913603.3447314899</v>
       </c>
     </row>
     <row r="9">
@@ -9178,28 +9178,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>601.8390204561315</v>
+        <v>708.5699163355215</v>
       </c>
       <c r="AB9" t="n">
-        <v>823.4626990517683</v>
+        <v>969.496619428757</v>
       </c>
       <c r="AC9" t="n">
-        <v>744.8725747914235</v>
+        <v>876.969222767527</v>
       </c>
       <c r="AD9" t="n">
-        <v>601839.0204561315</v>
+        <v>708569.9163355215</v>
       </c>
       <c r="AE9" t="n">
-        <v>823462.6990517683</v>
+        <v>969496.619428757</v>
       </c>
       <c r="AF9" t="n">
         <v>7.509175780280406e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.31666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>744872.5747914235</v>
+        <v>876969.222767527</v>
       </c>
     </row>
     <row r="10">
@@ -9284,28 +9284,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>598.1560103768576</v>
+        <v>704.8869062562477</v>
       </c>
       <c r="AB10" t="n">
-        <v>818.4234421783683</v>
+        <v>964.4573625553572</v>
       </c>
       <c r="AC10" t="n">
-        <v>740.3142575213797</v>
+        <v>872.4109054974831</v>
       </c>
       <c r="AD10" t="n">
-        <v>598156.0103768576</v>
+        <v>704886.9062562477</v>
       </c>
       <c r="AE10" t="n">
-        <v>818423.4421783683</v>
+        <v>964457.3625553573</v>
       </c>
       <c r="AF10" t="n">
         <v>7.534916929179064e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.24166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>740314.2575213796</v>
+        <v>872410.9054974831</v>
       </c>
     </row>
     <row r="11">
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>598.4850056079554</v>
+        <v>705.2159014873456</v>
       </c>
       <c r="AB11" t="n">
-        <v>818.8735879678019</v>
+        <v>964.9075083447906</v>
       </c>
       <c r="AC11" t="n">
-        <v>740.7214420284531</v>
+        <v>872.8180900045566</v>
       </c>
       <c r="AD11" t="n">
-        <v>598485.0056079554</v>
+        <v>705215.9014873456</v>
       </c>
       <c r="AE11" t="n">
-        <v>818873.5879678018</v>
+        <v>964907.5083447905</v>
       </c>
       <c r="AF11" t="n">
         <v>7.548189709079934e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="AH11" t="n">
-        <v>740721.4420284531</v>
+        <v>872818.0900045566</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>497.9394065126955</v>
+        <v>617.403145233366</v>
       </c>
       <c r="AB2" t="n">
-        <v>681.3026635268952</v>
+        <v>844.7582212127049</v>
       </c>
       <c r="AC2" t="n">
-        <v>616.2800935341816</v>
+        <v>764.1356822057736</v>
       </c>
       <c r="AD2" t="n">
-        <v>497939.4065126955</v>
+        <v>617403.1452333659</v>
       </c>
       <c r="AE2" t="n">
-        <v>681302.6635268952</v>
+        <v>844758.2212127049</v>
       </c>
       <c r="AF2" t="n">
         <v>1.174251278458135e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>616280.0935341816</v>
+        <v>764135.6822057737</v>
       </c>
     </row>
     <row r="3">
@@ -9793,28 +9793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.3309483971618</v>
+        <v>597.5720143657802</v>
       </c>
       <c r="AB3" t="n">
-        <v>666.7877031210807</v>
+        <v>817.6243930719268</v>
       </c>
       <c r="AC3" t="n">
-        <v>603.150420577623</v>
+        <v>739.5914685401842</v>
       </c>
       <c r="AD3" t="n">
-        <v>487330.9483971618</v>
+        <v>597572.0143657802</v>
       </c>
       <c r="AE3" t="n">
-        <v>666787.7031210806</v>
+        <v>817624.3930719268</v>
       </c>
       <c r="AF3" t="n">
         <v>1.200278460353106e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.02916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>603150.420577623</v>
+        <v>739591.4685401842</v>
       </c>
     </row>
   </sheetData>
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1482.457369825529</v>
+        <v>1683.679038635717</v>
       </c>
       <c r="AB2" t="n">
-        <v>2028.363574798646</v>
+        <v>2303.683939338247</v>
       </c>
       <c r="AC2" t="n">
-        <v>1834.77940204602</v>
+        <v>2083.82357740852</v>
       </c>
       <c r="AD2" t="n">
-        <v>1482457.369825529</v>
+        <v>1683679.038635717</v>
       </c>
       <c r="AE2" t="n">
-        <v>2028363.574798646</v>
+        <v>2303683.939338247</v>
       </c>
       <c r="AF2" t="n">
         <v>4.638109091606286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1834779.40204602</v>
+        <v>2083823.57740852</v>
       </c>
     </row>
     <row r="3">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>806.9804713362125</v>
+        <v>941.11719908003</v>
       </c>
       <c r="AB3" t="n">
-        <v>1104.146282347976</v>
+        <v>1287.678070941846</v>
       </c>
       <c r="AC3" t="n">
-        <v>998.7681108397251</v>
+        <v>1164.783883118679</v>
       </c>
       <c r="AD3" t="n">
-        <v>806980.4713362125</v>
+        <v>941117.19908003</v>
       </c>
       <c r="AE3" t="n">
-        <v>1104146.282347976</v>
+        <v>1287678.070941846</v>
       </c>
       <c r="AF3" t="n">
         <v>6.797839279300817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.47083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>998768.1108397251</v>
+        <v>1164783.883118679</v>
       </c>
     </row>
     <row r="4">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>676.4348525803222</v>
+        <v>801.050456348251</v>
       </c>
       <c r="AB4" t="n">
-        <v>925.5280074999367</v>
+        <v>1096.03257422765</v>
       </c>
       <c r="AC4" t="n">
-        <v>837.196913450859</v>
+        <v>991.4287636347418</v>
       </c>
       <c r="AD4" t="n">
-        <v>676434.8525803222</v>
+        <v>801050.4563482511</v>
       </c>
       <c r="AE4" t="n">
-        <v>925528.0074999367</v>
+        <v>1096032.57422765</v>
       </c>
       <c r="AF4" t="n">
         <v>7.550316346148528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>837196.913450859</v>
+        <v>991428.7636347418</v>
       </c>
     </row>
     <row r="5">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>615.2978875696681</v>
+        <v>730.2577277462995</v>
       </c>
       <c r="AB5" t="n">
-        <v>841.8777147998204</v>
+        <v>999.1708397996954</v>
       </c>
       <c r="AC5" t="n">
-        <v>761.5300872821186</v>
+        <v>903.811377194293</v>
       </c>
       <c r="AD5" t="n">
-        <v>615297.8875696681</v>
+        <v>730257.7277462995</v>
       </c>
       <c r="AE5" t="n">
-        <v>841877.7147998204</v>
+        <v>999170.8397996954</v>
       </c>
       <c r="AF5" t="n">
         <v>7.960839868026135e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.45833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>761530.0872821186</v>
+        <v>903811.377194293</v>
       </c>
     </row>
     <row r="6">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>571.1955633190063</v>
+        <v>686.222723303342</v>
       </c>
       <c r="AB6" t="n">
-        <v>781.5349691028365</v>
+        <v>938.9202040335531</v>
       </c>
       <c r="AC6" t="n">
-        <v>706.9463685428793</v>
+        <v>849.3109775433729</v>
       </c>
       <c r="AD6" t="n">
-        <v>571195.5633190062</v>
+        <v>686222.723303342</v>
       </c>
       <c r="AE6" t="n">
-        <v>781534.9691028364</v>
+        <v>938920.2040335531</v>
       </c>
       <c r="AF6" t="n">
         <v>8.201058872094255e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.77083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>706946.3685428794</v>
+        <v>849310.9775433729</v>
       </c>
     </row>
     <row r="7">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>560.9293678036772</v>
+        <v>675.956527788013</v>
       </c>
       <c r="AB7" t="n">
-        <v>767.4883074861823</v>
+        <v>924.8735424168988</v>
       </c>
       <c r="AC7" t="n">
-        <v>694.2403005963051</v>
+        <v>836.6049095967987</v>
       </c>
       <c r="AD7" t="n">
-        <v>560929.3678036772</v>
+        <v>675956.527788013</v>
       </c>
       <c r="AE7" t="n">
-        <v>767488.3074861823</v>
+        <v>924873.5424168988</v>
       </c>
       <c r="AF7" t="n">
         <v>8.273662377055142e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.57083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>694240.3005963052</v>
+        <v>836604.9095967987</v>
       </c>
     </row>
     <row r="8">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>561.5961907278546</v>
+        <v>676.6233507121904</v>
       </c>
       <c r="AB8" t="n">
-        <v>768.4006840291927</v>
+        <v>925.7859189599094</v>
       </c>
       <c r="AC8" t="n">
-        <v>695.0656012025792</v>
+        <v>837.4302102030728</v>
       </c>
       <c r="AD8" t="n">
-        <v>561596.1907278546</v>
+        <v>676623.3507121904</v>
       </c>
       <c r="AE8" t="n">
-        <v>768400.6840291927</v>
+        <v>925785.9189599094</v>
       </c>
       <c r="AF8" t="n">
         <v>8.287107470566416e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.53333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>695065.6012025792</v>
+        <v>837430.2102030728</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1828.16988164903</v>
+        <v>2050.110796199137</v>
       </c>
       <c r="AB2" t="n">
-        <v>2501.382685235165</v>
+        <v>2805.052035864735</v>
       </c>
       <c r="AC2" t="n">
-        <v>2262.654232468969</v>
+        <v>2537.341806477063</v>
       </c>
       <c r="AD2" t="n">
-        <v>1828169.881649029</v>
+        <v>2050110.796199137</v>
       </c>
       <c r="AE2" t="n">
-        <v>2501382.685235166</v>
+        <v>2805052.035864735</v>
       </c>
       <c r="AF2" t="n">
         <v>3.942666177406883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2262654.232468969</v>
+        <v>2537341.806477062</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>901.3874834658237</v>
+        <v>1046.119674548492</v>
       </c>
       <c r="AB3" t="n">
-        <v>1233.318121287139</v>
+        <v>1431.347090260076</v>
       </c>
       <c r="AC3" t="n">
-        <v>1115.611970764348</v>
+        <v>1294.741332873912</v>
       </c>
       <c r="AD3" t="n">
-        <v>901387.4834658237</v>
+        <v>1046119.674548492</v>
       </c>
       <c r="AE3" t="n">
-        <v>1233318.121287139</v>
+        <v>1431347.090260076</v>
       </c>
       <c r="AF3" t="n">
         <v>6.150897663036059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1115611.970764348</v>
+        <v>1294741.332873912</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>747.5114965510304</v>
+        <v>872.8741869591344</v>
       </c>
       <c r="AB4" t="n">
-        <v>1022.778207460887</v>
+        <v>1194.304971088824</v>
       </c>
       <c r="AC4" t="n">
-        <v>925.1656908190486</v>
+        <v>1080.322180865661</v>
       </c>
       <c r="AD4" t="n">
-        <v>747511.4965510304</v>
+        <v>872874.1869591344</v>
       </c>
       <c r="AE4" t="n">
-        <v>1022778.207460886</v>
+        <v>1194304.971088824</v>
       </c>
       <c r="AF4" t="n">
         <v>6.925893847264537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.45</v>
       </c>
       <c r="AH4" t="n">
-        <v>925165.6908190486</v>
+        <v>1080322.180865661</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>680.8577657299199</v>
+        <v>796.6035311233749</v>
       </c>
       <c r="AB5" t="n">
-        <v>931.5796323963732</v>
+        <v>1089.948094950479</v>
       </c>
       <c r="AC5" t="n">
-        <v>842.6709797606884</v>
+        <v>985.9249785201642</v>
       </c>
       <c r="AD5" t="n">
-        <v>680857.7657299199</v>
+        <v>796603.5311233748</v>
       </c>
       <c r="AE5" t="n">
-        <v>931579.6323963732</v>
+        <v>1089948.094950479</v>
       </c>
       <c r="AF5" t="n">
         <v>7.336235713368043e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.025</v>
       </c>
       <c r="AH5" t="n">
-        <v>842670.9797606884</v>
+        <v>985924.9785201643</v>
       </c>
     </row>
     <row r="6">
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>634.6226167887315</v>
+        <v>750.3342167634057</v>
       </c>
       <c r="AB6" t="n">
-        <v>868.3186618642264</v>
+        <v>1026.640377785085</v>
       </c>
       <c r="AC6" t="n">
-        <v>785.4475474687999</v>
+        <v>928.6592610280959</v>
       </c>
       <c r="AD6" t="n">
-        <v>634622.6167887315</v>
+        <v>750334.2167634057</v>
       </c>
       <c r="AE6" t="n">
-        <v>868318.6618642265</v>
+        <v>1026640.377785085</v>
       </c>
       <c r="AF6" t="n">
         <v>7.591324522914862e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.22083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>785447.5474688</v>
+        <v>928659.2610280958</v>
       </c>
     </row>
     <row r="7">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>596.822223727965</v>
+        <v>712.6011435103435</v>
       </c>
       <c r="AB7" t="n">
-        <v>816.5984964428397</v>
+        <v>975.0123222945399</v>
       </c>
       <c r="AC7" t="n">
-        <v>738.6634820455223</v>
+        <v>881.9585146931372</v>
       </c>
       <c r="AD7" t="n">
-        <v>596822.223727965</v>
+        <v>712601.1435103435</v>
       </c>
       <c r="AE7" t="n">
-        <v>816598.4964428397</v>
+        <v>975012.3222945399</v>
       </c>
       <c r="AF7" t="n">
         <v>7.762652827834366e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.70833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>738663.4820455223</v>
+        <v>881958.5146931373</v>
       </c>
     </row>
     <row r="8">
@@ -11659,28 +11659,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>582.1662452455321</v>
+        <v>697.8436798014254</v>
       </c>
       <c r="AB8" t="n">
-        <v>796.5455401070373</v>
+        <v>954.8205093946481</v>
       </c>
       <c r="AC8" t="n">
-        <v>720.5243517179078</v>
+        <v>863.6937800770238</v>
       </c>
       <c r="AD8" t="n">
-        <v>582166.2452455321</v>
+        <v>697843.6798014254</v>
       </c>
       <c r="AE8" t="n">
-        <v>796545.5401070373</v>
+        <v>954820.509394648</v>
       </c>
       <c r="AF8" t="n">
         <v>7.847682431016639e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.4625</v>
       </c>
       <c r="AH8" t="n">
-        <v>720524.3517179078</v>
+        <v>863693.7800770238</v>
       </c>
     </row>
     <row r="9">
@@ -11765,28 +11765,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>583.0387784959685</v>
+        <v>698.7162130518618</v>
       </c>
       <c r="AB9" t="n">
-        <v>797.7393785937347</v>
+        <v>956.0143478813454</v>
       </c>
       <c r="AC9" t="n">
-        <v>721.6042519349976</v>
+        <v>864.7736802941135</v>
       </c>
       <c r="AD9" t="n">
-        <v>583038.7784959684</v>
+        <v>698716.2130518619</v>
       </c>
       <c r="AE9" t="n">
-        <v>797739.3785937347</v>
+        <v>956014.3478813454</v>
       </c>
       <c r="AF9" t="n">
         <v>7.851912759533171e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.45</v>
       </c>
       <c r="AH9" t="n">
-        <v>721604.2519349976</v>
+        <v>864773.6802941136</v>
       </c>
     </row>
   </sheetData>
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2879.654204912965</v>
+        <v>3162.640768594064</v>
       </c>
       <c r="AB2" t="n">
-        <v>3940.069924539534</v>
+        <v>4327.264625454115</v>
       </c>
       <c r="AC2" t="n">
-        <v>3564.035180864203</v>
+        <v>3914.276562954657</v>
       </c>
       <c r="AD2" t="n">
-        <v>2879654.204912965</v>
+        <v>3162640.768594064</v>
       </c>
       <c r="AE2" t="n">
-        <v>3940069.924539534</v>
+        <v>4327264.625454115</v>
       </c>
       <c r="AF2" t="n">
         <v>2.841509136773175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.39166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3564035.180864203</v>
+        <v>3914276.562954657</v>
       </c>
     </row>
     <row r="3">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1121.032863533934</v>
+        <v>1277.136737935788</v>
       </c>
       <c r="AB3" t="n">
-        <v>1533.846620366605</v>
+        <v>1747.434828140113</v>
       </c>
       <c r="AC3" t="n">
-        <v>1387.458451686068</v>
+        <v>1580.662100682605</v>
       </c>
       <c r="AD3" t="n">
-        <v>1121032.863533934</v>
+        <v>1277136.737935788</v>
       </c>
       <c r="AE3" t="n">
-        <v>1533846.620366605</v>
+        <v>1747434.828140113</v>
       </c>
       <c r="AF3" t="n">
         <v>5.118485127953845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.30416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1387458.451686068</v>
+        <v>1580662.100682605</v>
       </c>
     </row>
     <row r="4">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>885.290707327671</v>
+        <v>1021.936231583687</v>
       </c>
       <c r="AB4" t="n">
-        <v>1211.293802035274</v>
+        <v>1398.258236697424</v>
       </c>
       <c r="AC4" t="n">
-        <v>1095.689621630555</v>
+        <v>1264.810433054782</v>
       </c>
       <c r="AD4" t="n">
-        <v>885290.707327671</v>
+        <v>1021936.231583687</v>
       </c>
       <c r="AE4" t="n">
-        <v>1211293.802035274</v>
+        <v>1398258.236697424</v>
       </c>
       <c r="AF4" t="n">
         <v>5.936827453444888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.9875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1095689.621630555</v>
+        <v>1264810.433054782</v>
       </c>
     </row>
     <row r="5">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>799.0873831616634</v>
+        <v>925.9027526332035</v>
       </c>
       <c r="AB5" t="n">
-        <v>1093.346610889084</v>
+        <v>1266.860994099292</v>
       </c>
       <c r="AC5" t="n">
-        <v>988.9991448674355</v>
+        <v>1145.953558873028</v>
       </c>
       <c r="AD5" t="n">
-        <v>799087.3831616634</v>
+        <v>925902.7526332035</v>
       </c>
       <c r="AE5" t="n">
-        <v>1093346.610889084</v>
+        <v>1266860.994099292</v>
       </c>
       <c r="AF5" t="n">
         <v>6.36791849990892e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.1625</v>
       </c>
       <c r="AH5" t="n">
-        <v>988999.1448674354</v>
+        <v>1145953.558873028</v>
       </c>
     </row>
     <row r="6">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>744.9379694962424</v>
+        <v>862.0246694097922</v>
       </c>
       <c r="AB6" t="n">
-        <v>1019.256994208525</v>
+        <v>1179.460182530881</v>
       </c>
       <c r="AC6" t="n">
-        <v>921.9805372174383</v>
+        <v>1066.894158092896</v>
       </c>
       <c r="AD6" t="n">
-        <v>744937.9694962425</v>
+        <v>862024.6694097922</v>
       </c>
       <c r="AE6" t="n">
-        <v>1019256.994208525</v>
+        <v>1179460.182530881</v>
       </c>
       <c r="AF6" t="n">
         <v>6.639417410527658e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.13333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>921980.5372174382</v>
+        <v>1066894.158092896</v>
       </c>
     </row>
     <row r="7">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>703.6392561483676</v>
+        <v>820.6917906431368</v>
       </c>
       <c r="AB7" t="n">
-        <v>962.7502726353177</v>
+        <v>1122.906714324426</v>
       </c>
       <c r="AC7" t="n">
-        <v>870.8667378434967</v>
+        <v>1015.738073518774</v>
       </c>
       <c r="AD7" t="n">
-        <v>703639.2561483677</v>
+        <v>820691.7906431367</v>
       </c>
       <c r="AE7" t="n">
-        <v>962750.2726353178</v>
+        <v>1122906.714324426</v>
       </c>
       <c r="AF7" t="n">
         <v>6.829005176724597e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.4625</v>
       </c>
       <c r="AH7" t="n">
-        <v>870866.7378434967</v>
+        <v>1015738.073518774</v>
       </c>
     </row>
     <row r="8">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>680.2923561239141</v>
+        <v>787.6503864794737</v>
       </c>
       <c r="AB8" t="n">
-        <v>930.8060140293246</v>
+        <v>1077.698007463829</v>
       </c>
       <c r="AC8" t="n">
-        <v>841.971194444811</v>
+        <v>974.8440221901337</v>
       </c>
       <c r="AD8" t="n">
-        <v>680292.3561239141</v>
+        <v>787650.3864794737</v>
       </c>
       <c r="AE8" t="n">
-        <v>930806.0140293246</v>
+        <v>1077698.007463829</v>
       </c>
       <c r="AF8" t="n">
         <v>6.962447275853071e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.0125</v>
       </c>
       <c r="AH8" t="n">
-        <v>841971.194444811</v>
+        <v>974844.0221901337</v>
       </c>
     </row>
     <row r="9">
@@ -12804,28 +12804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>650.0517897209293</v>
+        <v>767.1716440234027</v>
       </c>
       <c r="AB9" t="n">
-        <v>889.4295369571286</v>
+        <v>1049.678088577079</v>
       </c>
       <c r="AC9" t="n">
-        <v>804.5436302721349</v>
+        <v>949.4982850357317</v>
       </c>
       <c r="AD9" t="n">
-        <v>650051.7897209292</v>
+        <v>767171.6440234027</v>
       </c>
       <c r="AE9" t="n">
-        <v>889429.5369571286</v>
+        <v>1049678.088577079</v>
       </c>
       <c r="AF9" t="n">
         <v>7.062048150995072e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.6875</v>
       </c>
       <c r="AH9" t="n">
-        <v>804543.6302721349</v>
+        <v>949498.2850357316</v>
       </c>
     </row>
     <row r="10">
@@ -12910,28 +12910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>636.5319140070038</v>
+        <v>753.6517683094772</v>
       </c>
       <c r="AB10" t="n">
-        <v>870.9310465505149</v>
+        <v>1031.179598170465</v>
       </c>
       <c r="AC10" t="n">
-        <v>787.8106098271338</v>
+        <v>932.7652645907307</v>
       </c>
       <c r="AD10" t="n">
-        <v>636531.9140070038</v>
+        <v>753651.7683094773</v>
       </c>
       <c r="AE10" t="n">
-        <v>870931.0465505149</v>
+        <v>1031179.598170465</v>
       </c>
       <c r="AF10" t="n">
         <v>7.110502630793884e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.53333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>787810.6098271338</v>
+        <v>932765.2645907307</v>
       </c>
     </row>
     <row r="11">
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>622.3577358767936</v>
+        <v>729.6816008135723</v>
       </c>
       <c r="AB11" t="n">
-        <v>851.5373107121552</v>
+        <v>998.3825575134117</v>
       </c>
       <c r="AC11" t="n">
-        <v>770.2677849179081</v>
+        <v>903.0983274630511</v>
       </c>
       <c r="AD11" t="n">
-        <v>622357.7358767936</v>
+        <v>729681.6008135723</v>
       </c>
       <c r="AE11" t="n">
-        <v>851537.3107121552</v>
+        <v>998382.5575134117</v>
       </c>
       <c r="AF11" t="n">
         <v>7.183184350492101e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.30416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>770267.7849179081</v>
+        <v>903098.3274630511</v>
       </c>
     </row>
     <row r="12">
@@ -13122,28 +13122,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>623.9399642078376</v>
+        <v>731.2638291446162</v>
       </c>
       <c r="AB12" t="n">
-        <v>853.702185317677</v>
+        <v>1000.547432118934</v>
       </c>
       <c r="AC12" t="n">
-        <v>772.2260469294996</v>
+        <v>905.0565894746425</v>
       </c>
       <c r="AD12" t="n">
-        <v>623939.9642078376</v>
+        <v>731263.8291446163</v>
       </c>
       <c r="AE12" t="n">
-        <v>853702.1853176771</v>
+        <v>1000547.432118934</v>
       </c>
       <c r="AF12" t="n">
         <v>7.181261553674688e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.3125</v>
       </c>
       <c r="AH12" t="n">
-        <v>772226.0469294996</v>
+        <v>905056.5894746424</v>
       </c>
     </row>
   </sheetData>
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1199.622566012037</v>
+        <v>1380.362013161686</v>
       </c>
       <c r="AB2" t="n">
-        <v>1641.376518430121</v>
+        <v>1888.672203681926</v>
       </c>
       <c r="AC2" t="n">
-        <v>1484.725847197562</v>
+        <v>1708.419979330609</v>
       </c>
       <c r="AD2" t="n">
-        <v>1199622.566012037</v>
+        <v>1380362.013161686</v>
       </c>
       <c r="AE2" t="n">
-        <v>1641376.518430121</v>
+        <v>1888672.203681926</v>
       </c>
       <c r="AF2" t="n">
         <v>5.483492866972867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.42916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1484725.847197562</v>
+        <v>1708419.979330609</v>
       </c>
     </row>
     <row r="3">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>715.9605564561393</v>
+        <v>839.6498825081137</v>
       </c>
       <c r="AB3" t="n">
-        <v>979.6088192938169</v>
+        <v>1148.846011986073</v>
       </c>
       <c r="AC3" t="n">
-        <v>886.116328470027</v>
+        <v>1039.201761017626</v>
       </c>
       <c r="AD3" t="n">
-        <v>715960.5564561393</v>
+        <v>839649.8825081137</v>
       </c>
       <c r="AE3" t="n">
-        <v>979608.8192938168</v>
+        <v>1148846.011986073</v>
       </c>
       <c r="AF3" t="n">
         <v>7.589062081148845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.32083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>886116.3284700271</v>
+        <v>1039201.761017626</v>
       </c>
     </row>
     <row r="4">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>602.2257340872328</v>
+        <v>725.9140491093501</v>
       </c>
       <c r="AB4" t="n">
-        <v>823.9918177024424</v>
+        <v>993.2276270590443</v>
       </c>
       <c r="AC4" t="n">
-        <v>745.3511951007001</v>
+        <v>898.4353763362582</v>
       </c>
       <c r="AD4" t="n">
-        <v>602225.7340872328</v>
+        <v>725914.0491093501</v>
       </c>
       <c r="AE4" t="n">
-        <v>823991.8177024424</v>
+        <v>993227.6270590443</v>
       </c>
       <c r="AF4" t="n">
         <v>8.336462446563313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.9625</v>
       </c>
       <c r="AH4" t="n">
-        <v>745351.1951007001</v>
+        <v>898435.3763362581</v>
       </c>
     </row>
     <row r="5">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>548.711371551761</v>
+        <v>662.9141100034529</v>
       </c>
       <c r="AB5" t="n">
-        <v>750.7711059943579</v>
+        <v>907.0283310132</v>
       </c>
       <c r="AC5" t="n">
-        <v>679.1185653521209</v>
+        <v>820.4628201235574</v>
       </c>
       <c r="AD5" t="n">
-        <v>548711.3715517609</v>
+        <v>662914.110003453</v>
       </c>
       <c r="AE5" t="n">
-        <v>750771.1059943578</v>
+        <v>907028.3310132</v>
       </c>
       <c r="AF5" t="n">
         <v>8.708484693876738e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>679118.5653521209</v>
+        <v>820462.8201235575</v>
       </c>
     </row>
     <row r="6">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>539.8651938747869</v>
+        <v>654.0679323264787</v>
       </c>
       <c r="AB6" t="n">
-        <v>738.6673754309062</v>
+        <v>894.9246004497484</v>
       </c>
       <c r="AC6" t="n">
-        <v>668.1699978459525</v>
+        <v>809.514252617389</v>
       </c>
       <c r="AD6" t="n">
-        <v>539865.1938747868</v>
+        <v>654067.9323264788</v>
       </c>
       <c r="AE6" t="n">
-        <v>738667.3754309062</v>
+        <v>894924.6004497483</v>
       </c>
       <c r="AF6" t="n">
         <v>8.782313851204403e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.74583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>668169.9978459525</v>
+        <v>809514.2526173891</v>
       </c>
     </row>
     <row r="7">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>540.7918421713183</v>
+        <v>654.9945806230103</v>
       </c>
       <c r="AB7" t="n">
-        <v>739.9352565110585</v>
+        <v>896.1924815299004</v>
       </c>
       <c r="AC7" t="n">
-        <v>669.3168741352971</v>
+        <v>810.6611289067338</v>
       </c>
       <c r="AD7" t="n">
-        <v>540791.8421713184</v>
+        <v>654994.5806230103</v>
       </c>
       <c r="AE7" t="n">
-        <v>739935.2565110584</v>
+        <v>896192.4815299005</v>
       </c>
       <c r="AF7" t="n">
         <v>8.796216744467404e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.70833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>669316.8741352971</v>
+        <v>810661.1289067338</v>
       </c>
     </row>
   </sheetData>
@@ -14246,28 +14246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>863.7688300869274</v>
+        <v>1014.082278758791</v>
       </c>
       <c r="AB2" t="n">
-        <v>1181.846620116276</v>
+        <v>1387.512111950457</v>
       </c>
       <c r="AC2" t="n">
-        <v>1069.052837424527</v>
+        <v>1255.089903371384</v>
       </c>
       <c r="AD2" t="n">
-        <v>863768.8300869274</v>
+        <v>1014082.278758791</v>
       </c>
       <c r="AE2" t="n">
-        <v>1181846.620116276</v>
+        <v>1387512.111950457</v>
       </c>
       <c r="AF2" t="n">
         <v>7.21360549281671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1069052.837424527</v>
+        <v>1255089.903371384</v>
       </c>
     </row>
     <row r="3">
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>575.6970944219846</v>
+        <v>697.8750627956123</v>
       </c>
       <c r="AB3" t="n">
-        <v>787.6941625514677</v>
+        <v>954.8634489918146</v>
       </c>
       <c r="AC3" t="n">
-        <v>712.5177372132554</v>
+        <v>863.7326215793029</v>
       </c>
       <c r="AD3" t="n">
-        <v>575697.0944219846</v>
+        <v>697875.0627956123</v>
       </c>
       <c r="AE3" t="n">
-        <v>787694.1625514677</v>
+        <v>954863.4489918146</v>
       </c>
       <c r="AF3" t="n">
         <v>9.224562242079979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>712517.7372132554</v>
+        <v>863732.6215793028</v>
       </c>
     </row>
     <row r="4">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>516.0058334020384</v>
+        <v>628.7155485993151</v>
       </c>
       <c r="AB4" t="n">
-        <v>706.0219458313968</v>
+        <v>860.2363505660104</v>
       </c>
       <c r="AC4" t="n">
-        <v>638.6402022292719</v>
+        <v>778.1366006172907</v>
       </c>
       <c r="AD4" t="n">
-        <v>516005.8334020384</v>
+        <v>628715.5485993151</v>
       </c>
       <c r="AE4" t="n">
-        <v>706021.9458313968</v>
+        <v>860236.3505660105</v>
       </c>
       <c r="AF4" t="n">
         <v>9.791489598879601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.19583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>638640.202229272</v>
+        <v>778136.6006172907</v>
       </c>
     </row>
     <row r="5">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>517.70953451787</v>
+        <v>630.4192497151466</v>
       </c>
       <c r="AB5" t="n">
-        <v>708.3530248600663</v>
+        <v>862.5674295946799</v>
       </c>
       <c r="AC5" t="n">
-        <v>640.7488063471352</v>
+        <v>780.2452047351538</v>
       </c>
       <c r="AD5" t="n">
-        <v>517709.5345178701</v>
+        <v>630419.2497151466</v>
       </c>
       <c r="AE5" t="n">
-        <v>708353.0248600662</v>
+        <v>862567.4295946799</v>
       </c>
       <c r="AF5" t="n">
         <v>9.790399353962679e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>640748.8063471352</v>
+        <v>780245.2047351538</v>
       </c>
     </row>
     <row r="6">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>518.9592520186743</v>
+        <v>631.6689672159508</v>
       </c>
       <c r="AB6" t="n">
-        <v>710.0629434783115</v>
+        <v>864.2773482129251</v>
       </c>
       <c r="AC6" t="n">
-        <v>642.2955327323408</v>
+        <v>781.7919311203594</v>
       </c>
       <c r="AD6" t="n">
-        <v>518959.2520186743</v>
+        <v>631668.9672159508</v>
       </c>
       <c r="AE6" t="n">
-        <v>710062.9434783114</v>
+        <v>864277.348212925</v>
       </c>
       <c r="AF6" t="n">
         <v>9.804027415424207e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.16666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>642295.5327323409</v>
+        <v>781791.9311203595</v>
       </c>
     </row>
   </sheetData>
@@ -26716,28 +26716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>674.9319144502316</v>
+        <v>814.3857750697503</v>
       </c>
       <c r="AB2" t="n">
-        <v>923.4716212453961</v>
+        <v>1114.278545615146</v>
       </c>
       <c r="AC2" t="n">
-        <v>835.3367858142955</v>
+        <v>1007.933365121397</v>
       </c>
       <c r="AD2" t="n">
-        <v>674931.9144502316</v>
+        <v>814385.7750697503</v>
       </c>
       <c r="AE2" t="n">
-        <v>923471.6212453961</v>
+        <v>1114278.545615146</v>
       </c>
       <c r="AF2" t="n">
         <v>8.951527373268681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.49583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>835336.7858142955</v>
+        <v>1007933.365121397</v>
       </c>
     </row>
     <row r="3">
@@ -26822,28 +26822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>493.6560388504706</v>
+        <v>614.5652844423889</v>
       </c>
       <c r="AB3" t="n">
-        <v>675.4419709225945</v>
+        <v>840.8753348809079</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.9787372065014</v>
+        <v>760.6233730958181</v>
       </c>
       <c r="AD3" t="n">
-        <v>493656.0388504706</v>
+        <v>614565.2844423889</v>
       </c>
       <c r="AE3" t="n">
-        <v>675441.9709225944</v>
+        <v>840875.3348809079</v>
       </c>
       <c r="AF3" t="n">
         <v>1.069322449930817e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>610978.7372065014</v>
+        <v>760623.3730958181</v>
       </c>
     </row>
     <row r="4">
@@ -26928,28 +26928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.3046489366156</v>
+        <v>615.2138945285341</v>
       </c>
       <c r="AB4" t="n">
-        <v>676.3294278571159</v>
+        <v>841.7627918154292</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.7814964967457</v>
+        <v>761.4261323860624</v>
       </c>
       <c r="AD4" t="n">
-        <v>494304.6489366157</v>
+        <v>615213.894528534</v>
       </c>
       <c r="AE4" t="n">
-        <v>676329.4278571159</v>
+        <v>841762.7918154292</v>
       </c>
       <c r="AF4" t="n">
         <v>1.072077331149509e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>611781.4964967457</v>
+        <v>761426.1323860624</v>
       </c>
     </row>
   </sheetData>
@@ -27225,28 +27225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.0227674500273</v>
+        <v>600.4857485207792</v>
       </c>
       <c r="AB2" t="n">
-        <v>659.5248157687955</v>
+        <v>821.6110926876753</v>
       </c>
       <c r="AC2" t="n">
-        <v>596.5806930007136</v>
+        <v>743.1976831399738</v>
       </c>
       <c r="AD2" t="n">
-        <v>482022.7674500273</v>
+        <v>600485.7485207792</v>
       </c>
       <c r="AE2" t="n">
-        <v>659524.8157687956</v>
+        <v>821611.0926876753</v>
       </c>
       <c r="AF2" t="n">
         <v>1.278897873313426e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.37916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>596580.6930007136</v>
+        <v>743197.6831399738</v>
       </c>
     </row>
     <row r="3">
@@ -27331,28 +27331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.6630419613298</v>
+        <v>603.1260230320817</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.1373558358503</v>
+        <v>825.2236327547298</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.8484573140004</v>
+        <v>746.4654474532604</v>
       </c>
       <c r="AD3" t="n">
-        <v>484663.0419613298</v>
+        <v>603126.0230320817</v>
       </c>
       <c r="AE3" t="n">
-        <v>663137.3558358502</v>
+        <v>825223.6327547298</v>
       </c>
       <c r="AF3" t="n">
         <v>1.280355306787288e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.35</v>
       </c>
       <c r="AH3" t="n">
-        <v>599848.4573140003</v>
+        <v>746465.4474532604</v>
       </c>
     </row>
   </sheetData>
@@ -27628,28 +27628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1646.738903112566</v>
+        <v>1858.252826696078</v>
       </c>
       <c r="AB2" t="n">
-        <v>2253.140816231709</v>
+        <v>2542.543497814406</v>
       </c>
       <c r="AC2" t="n">
-        <v>2038.104219033551</v>
+        <v>2299.88671486521</v>
       </c>
       <c r="AD2" t="n">
-        <v>1646738.903112566</v>
+        <v>1858252.826696078</v>
       </c>
       <c r="AE2" t="n">
-        <v>2253140.816231709</v>
+        <v>2542543.497814406</v>
       </c>
       <c r="AF2" t="n">
         <v>4.273590052024355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2038104.219033551</v>
+        <v>2299886.71486521</v>
       </c>
     </row>
     <row r="3">
@@ -27734,28 +27734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>857.9381290143335</v>
+        <v>992.5569018976697</v>
       </c>
       <c r="AB3" t="n">
-        <v>1173.868797676376</v>
+        <v>1358.060141696466</v>
       </c>
       <c r="AC3" t="n">
-        <v>1061.836407161347</v>
+        <v>1228.448787822334</v>
       </c>
       <c r="AD3" t="n">
-        <v>857938.1290143335</v>
+        <v>992556.9018976698</v>
       </c>
       <c r="AE3" t="n">
-        <v>1173868.797676376</v>
+        <v>1358060.141696465</v>
       </c>
       <c r="AF3" t="n">
         <v>6.463234054252405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1061836.407161347</v>
+        <v>1228448.787822334</v>
       </c>
     </row>
     <row r="4">
@@ -27840,28 +27840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>715.5148885845753</v>
+        <v>830.926956502258</v>
       </c>
       <c r="AB4" t="n">
-        <v>978.9990368504641</v>
+        <v>1136.910919796526</v>
       </c>
       <c r="AC4" t="n">
-        <v>885.5647428072328</v>
+        <v>1028.405737275642</v>
       </c>
       <c r="AD4" t="n">
-        <v>715514.8885845753</v>
+        <v>830926.956502258</v>
       </c>
       <c r="AE4" t="n">
-        <v>978999.0368504641</v>
+        <v>1136910.919796526</v>
       </c>
       <c r="AF4" t="n">
         <v>7.232262778117958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.05833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>885564.7428072329</v>
+        <v>1028405.737275642</v>
       </c>
     </row>
     <row r="5">
@@ -27946,28 +27946,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>643.4351583681156</v>
+        <v>758.8803806747219</v>
       </c>
       <c r="AB5" t="n">
-        <v>880.3763700350353</v>
+        <v>1038.33361627869</v>
       </c>
       <c r="AC5" t="n">
-        <v>796.3544848948866</v>
+        <v>939.2365132514346</v>
       </c>
       <c r="AD5" t="n">
-        <v>643435.1583681155</v>
+        <v>758880.3806747219</v>
       </c>
       <c r="AE5" t="n">
-        <v>880376.3700350353</v>
+        <v>1038333.61627869</v>
       </c>
       <c r="AF5" t="n">
         <v>7.631566153971225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>796354.4848948866</v>
+        <v>939236.5132514347</v>
       </c>
     </row>
     <row r="6">
@@ -28052,28 +28052,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>598.8251281480107</v>
+        <v>714.2361850358363</v>
       </c>
       <c r="AB6" t="n">
-        <v>819.3389586322529</v>
+        <v>977.2494582426601</v>
       </c>
       <c r="AC6" t="n">
-        <v>741.1423983698409</v>
+        <v>883.9821415262089</v>
       </c>
       <c r="AD6" t="n">
-        <v>598825.1281480107</v>
+        <v>714236.1850358363</v>
       </c>
       <c r="AE6" t="n">
-        <v>819338.9586322529</v>
+        <v>977249.4582426602</v>
       </c>
       <c r="AF6" t="n">
         <v>7.884284303612564e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.9875</v>
       </c>
       <c r="AH6" t="n">
-        <v>741142.3983698408</v>
+        <v>883982.141526209</v>
       </c>
     </row>
     <row r="7">
@@ -28158,28 +28158,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>574.1379869302949</v>
+        <v>689.5490438181204</v>
       </c>
       <c r="AB7" t="n">
-        <v>785.5609228983699</v>
+        <v>943.4714225087771</v>
       </c>
       <c r="AC7" t="n">
-        <v>710.5880909586285</v>
+        <v>853.4278341149967</v>
       </c>
       <c r="AD7" t="n">
-        <v>574137.9869302949</v>
+        <v>689549.0438181204</v>
       </c>
       <c r="AE7" t="n">
-        <v>785560.9228983698</v>
+        <v>943471.4225087771</v>
       </c>
       <c r="AF7" t="n">
         <v>8.031739471819816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.56666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>710588.0909586286</v>
+        <v>853427.8341149967</v>
       </c>
     </row>
     <row r="8">
@@ -28264,28 +28264,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>571.9455475393968</v>
+        <v>687.3566044272222</v>
       </c>
       <c r="AB8" t="n">
-        <v>782.5611306001434</v>
+        <v>940.4716302105508</v>
       </c>
       <c r="AC8" t="n">
-        <v>707.87459462711</v>
+        <v>850.7143377834782</v>
       </c>
       <c r="AD8" t="n">
-        <v>571945.5475393968</v>
+        <v>687356.6044272223</v>
       </c>
       <c r="AE8" t="n">
-        <v>782561.1306001435</v>
+        <v>940471.6302105507</v>
       </c>
       <c r="AF8" t="n">
         <v>8.051748137712247e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.50833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>707874.5946271101</v>
+        <v>850714.3377834782</v>
       </c>
     </row>
     <row r="9">
@@ -28370,28 +28370,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>572.5137952208416</v>
+        <v>687.823366882182</v>
       </c>
       <c r="AB9" t="n">
-        <v>783.3386321472149</v>
+        <v>941.1102751935326</v>
       </c>
       <c r="AC9" t="n">
-        <v>708.5778925177591</v>
+        <v>851.2920313856283</v>
       </c>
       <c r="AD9" t="n">
-        <v>572513.7952208417</v>
+        <v>687823.366882182</v>
       </c>
       <c r="AE9" t="n">
-        <v>783338.6321472148</v>
+        <v>941110.2751935326</v>
       </c>
       <c r="AF9" t="n">
         <v>8.065232238639754e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.47083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>708577.8925177591</v>
+        <v>851292.0313856283</v>
       </c>
     </row>
   </sheetData>
@@ -28667,28 +28667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2549.442142383447</v>
+        <v>2821.956852329984</v>
       </c>
       <c r="AB2" t="n">
-        <v>3488.259212658577</v>
+        <v>3861.125861307945</v>
       </c>
       <c r="AC2" t="n">
-        <v>3155.344649204863</v>
+        <v>3492.625428228751</v>
       </c>
       <c r="AD2" t="n">
-        <v>2549442.142383447</v>
+        <v>2821956.852329983</v>
       </c>
       <c r="AE2" t="n">
-        <v>3488259.212658577</v>
+        <v>3861125.861307945</v>
       </c>
       <c r="AF2" t="n">
         <v>3.090460441197811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3155344.649204863</v>
+        <v>3492625.428228751</v>
       </c>
     </row>
     <row r="3">
@@ -28773,28 +28773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1061.853538078731</v>
+        <v>1217.600633347309</v>
       </c>
       <c r="AB3" t="n">
-        <v>1452.874856471219</v>
+        <v>1665.974903294594</v>
       </c>
       <c r="AC3" t="n">
-        <v>1314.214519292273</v>
+        <v>1506.976596734619</v>
       </c>
       <c r="AD3" t="n">
-        <v>1061853.538078731</v>
+        <v>1217600.633347309</v>
       </c>
       <c r="AE3" t="n">
-        <v>1452874.856471219</v>
+        <v>1665974.903294594</v>
       </c>
       <c r="AF3" t="n">
         <v>5.346107455318915e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.63333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1314214.519292273</v>
+        <v>1506976.596734619</v>
       </c>
     </row>
     <row r="4">
@@ -28879,28 +28879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>851.5749678611998</v>
+        <v>987.8494055438579</v>
       </c>
       <c r="AB4" t="n">
-        <v>1165.162439863801</v>
+        <v>1351.619137505098</v>
       </c>
       <c r="AC4" t="n">
-        <v>1053.960971918954</v>
+        <v>1222.622504030985</v>
       </c>
       <c r="AD4" t="n">
-        <v>851574.9678611998</v>
+        <v>987849.4055438578</v>
       </c>
       <c r="AE4" t="n">
-        <v>1165162.439863801</v>
+        <v>1351619.137505098</v>
       </c>
       <c r="AF4" t="n">
         <v>6.163234157245691e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.57083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1053960.971918954</v>
+        <v>1222622.504030985</v>
       </c>
     </row>
     <row r="5">
@@ -28985,28 +28985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>762.226373285322</v>
+        <v>888.7644821750201</v>
       </c>
       <c r="AB5" t="n">
-        <v>1042.911750983289</v>
+        <v>1216.046774033547</v>
       </c>
       <c r="AC5" t="n">
-        <v>943.3777172052788</v>
+        <v>1099.988976652151</v>
       </c>
       <c r="AD5" t="n">
-        <v>762226.373285322</v>
+        <v>888764.4821750202</v>
       </c>
       <c r="AE5" t="n">
-        <v>1042911.750983289</v>
+        <v>1216046.774033547</v>
       </c>
       <c r="AF5" t="n">
         <v>6.581426947457376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.88333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>943377.7172052788</v>
+        <v>1099988.976652151</v>
       </c>
     </row>
     <row r="6">
@@ -29091,28 +29091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>711.3146899204947</v>
+        <v>837.8186333914122</v>
       </c>
       <c r="AB6" t="n">
-        <v>973.2521397385818</v>
+        <v>1146.340416155592</v>
       </c>
       <c r="AC6" t="n">
-        <v>880.3663214898883</v>
+        <v>1036.935295736581</v>
       </c>
       <c r="AD6" t="n">
-        <v>711314.6899204948</v>
+        <v>837818.6333914122</v>
       </c>
       <c r="AE6" t="n">
-        <v>973252.1397385818</v>
+        <v>1146340.416155593</v>
       </c>
       <c r="AF6" t="n">
         <v>6.842797441339678e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.93333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>880366.3214898882</v>
+        <v>1036935.295736581</v>
       </c>
     </row>
     <row r="7">
@@ -29197,28 +29197,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>681.002952610365</v>
+        <v>797.7374128993987</v>
       </c>
       <c r="AB7" t="n">
-        <v>931.7782834913912</v>
+        <v>1091.499522019769</v>
       </c>
       <c r="AC7" t="n">
-        <v>842.8506718740065</v>
+        <v>987.3283395674023</v>
       </c>
       <c r="AD7" t="n">
-        <v>681002.952610365</v>
+        <v>797737.4128993987</v>
       </c>
       <c r="AE7" t="n">
-        <v>931778.2834913912</v>
+        <v>1091499.522019769</v>
       </c>
       <c r="AF7" t="n">
         <v>7.029490651255608e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.29583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>842850.6718740065</v>
+        <v>987328.3395674023</v>
       </c>
     </row>
     <row r="8">
@@ -29303,28 +29303,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>646.3086071406586</v>
+        <v>763.110387237397</v>
       </c>
       <c r="AB8" t="n">
-        <v>884.3079494132418</v>
+        <v>1044.121297872461</v>
       </c>
       <c r="AC8" t="n">
-        <v>799.9108398552434</v>
+        <v>944.4718266369582</v>
       </c>
       <c r="AD8" t="n">
-        <v>646308.6071406587</v>
+        <v>763110.387237397</v>
       </c>
       <c r="AE8" t="n">
-        <v>884307.9494132418</v>
+        <v>1044121.297872461</v>
       </c>
       <c r="AF8" t="n">
         <v>7.169019260771724e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.84166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>799910.8398552433</v>
+        <v>944471.8266369582</v>
       </c>
     </row>
     <row r="9">
@@ -29409,28 +29409,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>626.5541965963426</v>
+        <v>743.3559766930809</v>
       </c>
       <c r="AB9" t="n">
-        <v>857.279093403423</v>
+        <v>1017.092441862643</v>
       </c>
       <c r="AC9" t="n">
-        <v>775.4615799277639</v>
+        <v>920.0225667094788</v>
       </c>
       <c r="AD9" t="n">
-        <v>626554.1965963426</v>
+        <v>743355.976693081</v>
       </c>
       <c r="AE9" t="n">
-        <v>857279.093403423</v>
+        <v>1017092.441862643</v>
       </c>
       <c r="AF9" t="n">
         <v>7.27081618996799e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.525</v>
       </c>
       <c r="AH9" t="n">
-        <v>775461.5799277639</v>
+        <v>920022.5667094789</v>
       </c>
     </row>
     <row r="10">
@@ -29515,28 +29515,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>615.1842124682775</v>
+        <v>722.2165093831322</v>
       </c>
       <c r="AB10" t="n">
-        <v>841.7221795111061</v>
+        <v>988.1684900816929</v>
       </c>
       <c r="AC10" t="n">
-        <v>761.3893960630641</v>
+        <v>893.859076291482</v>
       </c>
       <c r="AD10" t="n">
-        <v>615184.2124682774</v>
+        <v>722216.5093831322</v>
       </c>
       <c r="AE10" t="n">
-        <v>841722.1795111061</v>
+        <v>988168.4900816929</v>
       </c>
       <c r="AF10" t="n">
         <v>7.312478253654492e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>761389.3960630641</v>
+        <v>893859.076291482</v>
       </c>
     </row>
     <row r="11">
@@ -29621,28 +29621,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>613.5811764966616</v>
+        <v>720.6134734115162</v>
       </c>
       <c r="AB11" t="n">
-        <v>839.5288349737854</v>
+        <v>985.975145544372</v>
       </c>
       <c r="AC11" t="n">
-        <v>759.4053812500067</v>
+        <v>891.8750614784246</v>
       </c>
       <c r="AD11" t="n">
-        <v>613581.1764966615</v>
+        <v>720613.4734115162</v>
       </c>
       <c r="AE11" t="n">
-        <v>839528.8349737853</v>
+        <v>985975.145544372</v>
       </c>
       <c r="AF11" t="n">
         <v>7.334488400507739e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.32916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>759405.3812500067</v>
+        <v>891875.0614784246</v>
       </c>
     </row>
   </sheetData>
@@ -29918,28 +29918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>496.6995833038692</v>
+        <v>632.0431384434412</v>
       </c>
       <c r="AB2" t="n">
-        <v>679.6062827154395</v>
+        <v>864.7893057936469</v>
       </c>
       <c r="AC2" t="n">
-        <v>614.7456129264857</v>
+        <v>782.2550281881144</v>
       </c>
       <c r="AD2" t="n">
-        <v>496699.5833038692</v>
+        <v>632043.1384434412</v>
       </c>
       <c r="AE2" t="n">
-        <v>679606.2827154396</v>
+        <v>864789.305793647</v>
       </c>
       <c r="AF2" t="n">
         <v>1.362344241924012e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>614745.6129264857</v>
+        <v>782255.0281881144</v>
       </c>
     </row>
   </sheetData>
@@ -30215,28 +30215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>970.4505374492111</v>
+        <v>1130.881885851473</v>
       </c>
       <c r="AB2" t="n">
-        <v>1327.813238594115</v>
+        <v>1547.32248720966</v>
       </c>
       <c r="AC2" t="n">
-        <v>1201.088606700277</v>
+        <v>1399.648200711119</v>
       </c>
       <c r="AD2" t="n">
-        <v>970450.5374492111</v>
+        <v>1130881.885851473</v>
       </c>
       <c r="AE2" t="n">
-        <v>1327813.238594115</v>
+        <v>1547322.48720966</v>
       </c>
       <c r="AF2" t="n">
         <v>6.555047909772484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.04166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1201088.606700277</v>
+        <v>1399648.200711119</v>
       </c>
     </row>
     <row r="3">
@@ -30321,28 +30321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>624.8077429137649</v>
+        <v>747.4666598739685</v>
       </c>
       <c r="AB3" t="n">
-        <v>854.8895184268214</v>
+        <v>1022.716859941276</v>
       </c>
       <c r="AC3" t="n">
-        <v>773.3000626331396</v>
+        <v>925.1101982206078</v>
       </c>
       <c r="AD3" t="n">
-        <v>624807.7429137649</v>
+        <v>747466.6598739686</v>
       </c>
       <c r="AE3" t="n">
-        <v>854889.5184268213</v>
+        <v>1022716.859941276</v>
       </c>
       <c r="AF3" t="n">
         <v>8.609413440257881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.15833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>773300.0626331397</v>
+        <v>925110.1982206078</v>
       </c>
     </row>
     <row r="4">
@@ -30427,28 +30427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>537.1051753827601</v>
+        <v>650.3209844824493</v>
       </c>
       <c r="AB4" t="n">
-        <v>734.890996366693</v>
+        <v>889.7978611058749</v>
       </c>
       <c r="AC4" t="n">
-        <v>664.7540310994466</v>
+        <v>804.8768020810709</v>
       </c>
       <c r="AD4" t="n">
-        <v>537105.1753827601</v>
+        <v>650320.9844824492</v>
       </c>
       <c r="AE4" t="n">
-        <v>734890.9963666931</v>
+        <v>889797.8611058749</v>
       </c>
       <c r="AF4" t="n">
         <v>9.318980482037377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.24166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>664754.0310994466</v>
+        <v>804876.8020810708</v>
       </c>
     </row>
     <row r="5">
@@ -30533,28 +30533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>528.2103903845014</v>
+        <v>632.0514224612375</v>
       </c>
       <c r="AB5" t="n">
-        <v>722.7207591218562</v>
+        <v>864.800640352261</v>
       </c>
       <c r="AC5" t="n">
-        <v>653.7453042162217</v>
+        <v>782.2652809923622</v>
       </c>
       <c r="AD5" t="n">
-        <v>528210.3903845013</v>
+        <v>632051.4224612375</v>
       </c>
       <c r="AE5" t="n">
-        <v>722720.7591218562</v>
+        <v>864800.640352261</v>
       </c>
       <c r="AF5" t="n">
         <v>9.412029932937399e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.0125</v>
       </c>
       <c r="AH5" t="n">
-        <v>653745.3042162217</v>
+        <v>782265.2809923623</v>
       </c>
     </row>
     <row r="6">
@@ -30639,28 +30639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>519.4502282088498</v>
+        <v>632.7333571162434</v>
       </c>
       <c r="AB6" t="n">
-        <v>710.7347187620504</v>
+        <v>865.7336934320738</v>
       </c>
       <c r="AC6" t="n">
-        <v>642.9031947258424</v>
+        <v>783.109284795786</v>
       </c>
       <c r="AD6" t="n">
-        <v>519450.2282088498</v>
+        <v>632733.3571162433</v>
       </c>
       <c r="AE6" t="n">
-        <v>710734.7187620504</v>
+        <v>865733.6934320738</v>
       </c>
       <c r="AF6" t="n">
         <v>9.426065324972598e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.97916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>642903.1947258423</v>
+        <v>783109.284795786</v>
       </c>
     </row>
   </sheetData>
@@ -30936,28 +30936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1335.023586701177</v>
+        <v>1525.986895038355</v>
       </c>
       <c r="AB2" t="n">
-        <v>1826.638168408448</v>
+        <v>2087.922591581952</v>
       </c>
       <c r="AC2" t="n">
-        <v>1652.306385318316</v>
+        <v>1888.654189859132</v>
       </c>
       <c r="AD2" t="n">
-        <v>1335023.586701177</v>
+        <v>1525986.895038354</v>
       </c>
       <c r="AE2" t="n">
-        <v>1826638.168408448</v>
+        <v>2087922.591581952</v>
       </c>
       <c r="AF2" t="n">
         <v>5.037014668675696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1652306.385318316</v>
+        <v>1888654.189859132</v>
       </c>
     </row>
     <row r="3">
@@ -31042,28 +31042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>756.8214580838749</v>
+        <v>890.5565639528048</v>
       </c>
       <c r="AB3" t="n">
-        <v>1035.516507556639</v>
+        <v>1218.498779382981</v>
       </c>
       <c r="AC3" t="n">
-        <v>936.6882654319794</v>
+        <v>1102.206966052446</v>
       </c>
       <c r="AD3" t="n">
-        <v>756821.4580838749</v>
+        <v>890556.5639528048</v>
       </c>
       <c r="AE3" t="n">
-        <v>1035516.507556639</v>
+        <v>1218498.779382981</v>
       </c>
       <c r="AF3" t="n">
         <v>7.168094942024612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.90416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>936688.2654319794</v>
+        <v>1102206.966052446</v>
       </c>
     </row>
     <row r="4">
@@ -31148,28 +31148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>644.1642888588328</v>
+        <v>758.7563444405948</v>
       </c>
       <c r="AB4" t="n">
-        <v>881.3739985394017</v>
+        <v>1038.163904431065</v>
       </c>
       <c r="AC4" t="n">
-        <v>797.2569011349765</v>
+        <v>939.0829984643547</v>
       </c>
       <c r="AD4" t="n">
-        <v>644164.2888588328</v>
+        <v>758756.3444405948</v>
       </c>
       <c r="AE4" t="n">
-        <v>881373.9985394017</v>
+        <v>1038163.904431065</v>
       </c>
       <c r="AF4" t="n">
         <v>7.924434031219254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.3375</v>
       </c>
       <c r="AH4" t="n">
-        <v>797256.9011349765</v>
+        <v>939082.9984643547</v>
       </c>
     </row>
     <row r="5">
@@ -31254,28 +31254,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>586.4704068597564</v>
+        <v>701.0282970227374</v>
       </c>
       <c r="AB5" t="n">
-        <v>802.4346839138278</v>
+        <v>959.1778431722435</v>
       </c>
       <c r="AC5" t="n">
-        <v>725.8514439052436</v>
+        <v>867.6352560344418</v>
       </c>
       <c r="AD5" t="n">
-        <v>586470.4068597564</v>
+        <v>701028.2970227374</v>
       </c>
       <c r="AE5" t="n">
-        <v>802434.6839138279</v>
+        <v>959177.8431722434</v>
       </c>
       <c r="AF5" t="n">
         <v>8.319729981141055e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.18333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>725851.4439052437</v>
+        <v>867635.2560344418</v>
       </c>
     </row>
     <row r="6">
@@ -31360,28 +31360,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>551.2125344954545</v>
+        <v>665.83774446614</v>
       </c>
       <c r="AB6" t="n">
-        <v>754.193307477441</v>
+        <v>911.0285766666979</v>
       </c>
       <c r="AC6" t="n">
-        <v>682.2141567287483</v>
+        <v>824.0812879462655</v>
       </c>
       <c r="AD6" t="n">
-        <v>551212.5344954545</v>
+        <v>665837.7444661399</v>
       </c>
       <c r="AE6" t="n">
-        <v>754193.3074774409</v>
+        <v>911028.5766666979</v>
       </c>
       <c r="AF6" t="n">
         <v>8.510434818808248e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.6625</v>
       </c>
       <c r="AH6" t="n">
-        <v>682214.1567287483</v>
+        <v>824081.2879462655</v>
       </c>
     </row>
     <row r="7">
@@ -31466,28 +31466,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>551.72610748022</v>
+        <v>666.3513174509055</v>
       </c>
       <c r="AB7" t="n">
-        <v>754.8960006924381</v>
+        <v>911.7312698816952</v>
       </c>
       <c r="AC7" t="n">
-        <v>682.8497858895422</v>
+        <v>824.7169171070595</v>
       </c>
       <c r="AD7" t="n">
-        <v>551726.10748022</v>
+        <v>666351.3174509056</v>
       </c>
       <c r="AE7" t="n">
-        <v>754896.0006924381</v>
+        <v>911731.2698816952</v>
       </c>
       <c r="AF7" t="n">
         <v>8.518303707741118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.64166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>682849.7858895422</v>
+        <v>824716.9171070595</v>
       </c>
     </row>
   </sheetData>
